--- a/Data Analysis.xlsx
+++ b/Data Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56B956E-A980-4FFD-B837-C57375820B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49043E2-6B5D-4822-859F-A8894ADB3778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10104" yWindow="0" windowWidth="12936" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{CD8DB978-185C-435B-B321-DAE8AA9CD3B9}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="6" activeTab="6" xr2:uid="{CD8DB978-185C-435B-B321-DAE8AA9CD3B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,24 @@
     <sheet name="EDA with CF" sheetId="3" r:id="rId3"/>
     <sheet name="Sales by Country (with fomulas)" sheetId="4" r:id="rId4"/>
     <sheet name="Sales by country (with pivot)" sheetId="5" r:id="rId5"/>
+    <sheet name="Top 5 products by $ per unit" sheetId="6" r:id="rId6"/>
+    <sheet name="Anomaly detection" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sales by Country (with fomulas)'!$B$3:$E$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$E$304</definedName>
+    <definedName name="_xlcn.WorksheetConnection_DataAnalysis.xlsxdata11" hidden="1">Data1[]</definedName>
     <definedName name="Slicer_Sales_Person">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="9" r:id="rId8"/>
+    <pivotCache cacheId="48" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId10"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -39,6 +43,13 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="data1" name="data1" connection="WorksheetConnection_Data Analysis.xlsx!data1"/>
+        </x15:modelTables>
+      </x15:dataModel>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -53,6 +64,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{DC5D9642-4FF3-4DA6-A887-E39C5CF00A38}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" xr16:uid="{B0FEB796-FC16-4FF6-B9EC-F42B2B09DE89}" name="WorksheetConnection_Data Analysis.xlsx!data1" type="102" refreshedVersion="8" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="data1" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_DataAnalysis.xlsxdata11"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="65">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -254,6 +288,9 @@
     <t>Row Labels</t>
   </si>
   <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
     <t>Sum of Amount</t>
   </si>
   <si>
@@ -262,18 +299,28 @@
   <si>
     <t xml:space="preserve">  </t>
   </si>
+  <si>
+    <t>Top 5 products by $ per unit</t>
+  </si>
+  <si>
+    <t>Sales per unit</t>
+  </si>
+  <si>
+    <t>Are there any anomalies in the data?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="170" formatCode="\$#,##0.00;\(\$#,##0.00\);\$#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +373,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -388,7 +442,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -422,13 +476,64 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
@@ -485,26 +590,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -573,6 +658,2649 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Anomaly detection'!$L$7:$L$306</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8869</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1785</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3983</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2646</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2464</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2114</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7693</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15610</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9443</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2205</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1771</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2114</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10311</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6314</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4683</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6398</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5817</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3976</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6027</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3262</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2289</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6986</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4417</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2415</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4949</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5075</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9198</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3339</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5019</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16184</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8211</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6580</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4760</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5439</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1463</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7777</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4242</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6118</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2317</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9709</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2205</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4487</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2415</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4018</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5586</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2226</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14329</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8463</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2891</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3773</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4970</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13391</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8890</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3339</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3808</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7812</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7693</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2471</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7189</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7455</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3108</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2737</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4305</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>12348</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3689</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2933</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2744</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9772</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11417</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6748</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5236</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6608</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8008</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1428</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1505</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6755</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11571</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6125</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4753</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2793</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4606</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5551</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6657</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4438</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>7777</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3339</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6391</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5677</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6048</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3752</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4480</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2478</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7847</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>9926</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3052</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6832</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7322</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3192</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>8435</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>8862</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3556</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7280</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3402</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4592</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7833</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7651</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2275</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5670</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2779</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>12950</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2646</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3794</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2583</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4585</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1652</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4991</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3388</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>10073</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>11522</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2317</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3059</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2324</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4956</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5355</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7259</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6279</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3864</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6146</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2639</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2856</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3598</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>6853</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4725</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>10304</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1274</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3101</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>5306</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4018</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1778</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1638</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>9835</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>7273</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>6909</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3920</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4858</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3549</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2954</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>6118</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4802</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4137</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>9051</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2919</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>5915</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2562</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>8813</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>6111</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3507</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4319</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>6370</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>5474</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3164</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1302</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>7308</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>6132</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3472</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>9660</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2436</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>9506</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3759</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1589</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>5194</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>6734</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>6279</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>4424</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>10129</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1652</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>6433</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2212</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1638</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3829</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>5775</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5019</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2863</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1617</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>6818</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>6657</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2919</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3094</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2989</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2268</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>4753</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>7511</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>4326</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>4935</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>4781</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>7483</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>6860</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>9002</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>4053</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2149</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3640</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2429</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2142</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>6454</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>4487</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>8841</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>4018</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3850</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Anomaly detection'!$M$7:$M$306</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBE5-4B5F-A5B4-CD7063C962F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="678210767"/>
+        <c:axId val="678229007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="678210767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678229007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="678229007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678210767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,6 +3381,47 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B3952D-8AA3-6C0B-4A6D-92730BBB1887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -970,6 +3739,80 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
       <x14:pivotCacheDefinition pivotCacheId="1135205982"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Lenovo" refreshedDate="45539.975837615741" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{F98F9517-74FB-4492-BA32-EA801B4AC095}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="2">
+    <cacheField name="[data1].[Product].[Product]" caption="Product" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="5">
+        <s v="85% Dark Bars"/>
+        <s v="After Nines"/>
+        <s v="Baker's Choco Chips"/>
+        <s v="Peanut Butter Cubes"/>
+        <s v="Raspberry Choco"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Sales per unit]" caption="Sales per unit" numFmtId="0" hierarchy="8" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="11">
+    <cacheHierarchy uniqueName="[data1].[Sales Person]" caption="Sales Person" attribute="1" defaultMemberUniqueName="[data1].[Sales Person].[All]" allUniqueName="[data1].[Sales Person].[All]" dimensionUniqueName="[data1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data1].[Geography]" caption="Geography" attribute="1" defaultMemberUniqueName="[data1].[Geography].[All]" allUniqueName="[data1].[Geography].[All]" dimensionUniqueName="[data1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data1].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[data1].[Product].[All]" allUniqueName="[data1].[Product].[All]" dimensionUniqueName="[data1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[data1].[Amount]" caption="Amount" attribute="1" defaultMemberUniqueName="[data1].[Amount].[All]" allUniqueName="[data1].[Amount].[All]" dimensionUniqueName="[data1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data1].[Units]" caption="Units" attribute="1" defaultMemberUniqueName="[data1].[Units].[All]" allUniqueName="[data1].[Units].[All]" dimensionUniqueName="[data1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Count of Product]" caption="Count of Product" measure="1" displayFolder="" measureGroup="data1" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Units]" caption="Sum of Units" measure="1" displayFolder="" measureGroup="data1" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Amount]" caption="Sum of Amount" measure="1" displayFolder="" measureGroup="data1" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sales per unit]" caption="Sales per unit" measure="1" displayFolder="" measureGroup="data1" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count data1]" caption="__XL_Count data1" measure="1" displayFolder="" measureGroup="data1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension name="data1" uniqueName="[data1]" caption="data1"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="data1" caption="data1"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="0"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -3429,7 +6272,7 @@
     <dataField name="Sum of Units" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="10">
+    <format dxfId="15">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3438,7 +6281,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="16">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3481,6 +6324,101 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78DDA372-7C02-427D-B156-45110A280BEA}" name="PivotTable4" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="11">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="count" id="1" iMeasureHier="8">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="2"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Data Analysis.xlsx!data1">
+        <x15:activeTabTopLevelEntity name="[data1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Sales_Person" xr10:uid="{917577D0-4045-4E53-BF4D-6382CCCE589A}" sourceName="Sales Person">
   <pivotTables>
@@ -3512,24 +6450,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{875C5605-3F4E-4992-891A-D193F208C6CD}" name="Data1" displayName="Data1" ref="A4:E304" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{875C5605-3F4E-4992-891A-D193F208C6CD}" name="Data1" displayName="Data1" ref="A4:E304" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A4:E304" xr:uid="{875C5605-3F4E-4992-891A-D193F208C6CD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{680E1972-D540-42C4-98D3-C9DDEE13105D}" name="Sales Person"/>
     <tableColumn id="2" xr3:uid="{1C9E4BC3-CD14-4A40-A1A8-0B13003E0521}" name="Geography"/>
     <tableColumn id="3" xr3:uid="{825B5F70-301E-4BAA-9819-B8EF35EE9DD6}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{AFB1CCAE-42EF-463D-BA27-4D9D4D8B2E8F}" name="Amount" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{9FC8C55E-CCE0-4C77-AB70-9F5D64EB8389}" name="Units" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{AFB1CCAE-42EF-463D-BA27-4D9D4D8B2E8F}" name="Amount" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{9FC8C55E-CCE0-4C77-AB70-9F5D64EB8389}" name="Units" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C237C5DC-4DC0-4EB4-A225-020717577FEC}" name="Data16" displayName="Data16" ref="B4:F304" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C237C5DC-4DC0-4EB4-A225-020717577FEC}" name="Data16" displayName="Data16" ref="B4:F304" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="B4:F304" xr:uid="{C237C5DC-4DC0-4EB4-A225-020717577FEC}">
     <filterColumn colId="3">
-      <colorFilter dxfId="23" cellColor="0"/>
+      <colorFilter dxfId="26" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:F304">
@@ -3539,8 +6477,22 @@
     <tableColumn id="1" xr3:uid="{BB07AF2A-3049-431F-B5E5-6E931089AF1B}" name="Sales Person"/>
     <tableColumn id="2" xr3:uid="{968D83D5-F377-4C93-923D-56A7EE38EB07}" name="Geography"/>
     <tableColumn id="3" xr3:uid="{C42DDE64-02D1-4585-A225-0583B18524B7}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{2941AC9F-E6CD-4ED8-A966-028FFF8D25D4}" name="Amount" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{6B1D6AD6-A64E-4E40-9E83-3B7C7A39BB95}" name="Units" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{2941AC9F-E6CD-4ED8-A966-028FFF8D25D4}" name="Amount" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{6B1D6AD6-A64E-4E40-9E83-3B7C7A39BB95}" name="Units" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{326E5395-84E3-438F-8001-4FEFD4D1496E}" name="Data13" displayName="Data13" ref="I6:M306" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="I6:M306" xr:uid="{326E5395-84E3-438F-8001-4FEFD4D1496E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F6C5302A-2C7A-42D6-A118-EC4DDC6BBC9D}" name="Sales Person"/>
+    <tableColumn id="2" xr3:uid="{CAF21200-B065-4261-92E7-8A5CA0E83B77}" name="Geography"/>
+    <tableColumn id="3" xr3:uid="{42605394-5737-4426-B2D9-B770F58D0BA3}" name="Product"/>
+    <tableColumn id="4" xr3:uid="{33702378-1A8B-492C-9D7A-7599BAB2DAA2}" name="Amount" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{7D949C1B-11E4-47A6-800F-777C7D64DAC4}" name="Units" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3865,7 +6817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6120AA87-CD80-45CE-BC9A-6E70F06E09EB}">
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:E304"/>
     </sheetView>
   </sheetViews>
@@ -14301,10 +17253,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E5:E304">
-    <cfRule type="top10" dxfId="20" priority="1" rank="10"/>
+    <cfRule type="top10" dxfId="1" priority="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F304">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14602,7 +17554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9813BDCC-18D6-4598-85EC-0A18FDCEE41A}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -15100,13 +18052,13 @@
         <v>57</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -15236,4 +18188,5288 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5547814B-634F-43BF-A12B-A4EA398B39AB}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="22" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="23">
+        <v>44.990867579908674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="23">
+        <v>37.303128371089535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="23">
+        <v>33.88697318007663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="23">
+        <v>32.807189542483663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="23">
+        <v>32.301656920077974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="23">
+        <v>35.949565217391303</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD16C6D8-D7ED-4E9B-9362-C9E4CF0AAE13}">
+  <dimension ref="A1:M306"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1624</v>
+      </c>
+      <c r="M7" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6706</v>
+      </c>
+      <c r="M8" s="2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="1">
+        <v>959</v>
+      </c>
+      <c r="M9" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9632</v>
+      </c>
+      <c r="M10" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2100</v>
+      </c>
+      <c r="M11" s="2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="1">
+        <v>8869</v>
+      </c>
+      <c r="M12" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2681</v>
+      </c>
+      <c r="M13" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="1">
+        <v>5012</v>
+      </c>
+      <c r="M14" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1281</v>
+      </c>
+      <c r="M15" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4991</v>
+      </c>
+      <c r="M16" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1785</v>
+      </c>
+      <c r="M17" s="2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="1">
+        <v>3983</v>
+      </c>
+      <c r="M18" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2646</v>
+      </c>
+      <c r="M19" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="1">
+        <v>252</v>
+      </c>
+      <c r="M20" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2464</v>
+      </c>
+      <c r="M21" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2114</v>
+      </c>
+      <c r="M22" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="1">
+        <v>7693</v>
+      </c>
+      <c r="M23" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="1">
+        <v>15610</v>
+      </c>
+      <c r="M24" s="2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="1">
+        <v>336</v>
+      </c>
+      <c r="M25" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="1">
+        <v>9443</v>
+      </c>
+      <c r="M26" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="1">
+        <v>8155</v>
+      </c>
+      <c r="M27" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1701</v>
+      </c>
+      <c r="M28" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2205</v>
+      </c>
+      <c r="M29" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1771</v>
+      </c>
+      <c r="M30" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2114</v>
+      </c>
+      <c r="M31" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="1">
+        <v>10311</v>
+      </c>
+      <c r="M32" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="1">
+        <v>21</v>
+      </c>
+      <c r="M33" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1974</v>
+      </c>
+      <c r="M34" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="1">
+        <v>6314</v>
+      </c>
+      <c r="M35" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="1">
+        <v>4683</v>
+      </c>
+      <c r="M36" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="1">
+        <v>6398</v>
+      </c>
+      <c r="M37" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L38" s="1">
+        <v>553</v>
+      </c>
+      <c r="M38" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="1">
+        <v>7021</v>
+      </c>
+      <c r="M39" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="1">
+        <v>5817</v>
+      </c>
+      <c r="M40" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="1">
+        <v>3976</v>
+      </c>
+      <c r="M41" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1134</v>
+      </c>
+      <c r="M42" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43" s="1">
+        <v>6027</v>
+      </c>
+      <c r="M43" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1904</v>
+      </c>
+      <c r="M44" s="2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="45" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="1">
+        <v>3262</v>
+      </c>
+      <c r="M45" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46" s="1">
+        <v>2289</v>
+      </c>
+      <c r="M46" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" t="s">
+        <v>40</v>
+      </c>
+      <c r="L47" s="1">
+        <v>6986</v>
+      </c>
+      <c r="M47" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" s="1">
+        <v>4417</v>
+      </c>
+      <c r="M48" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1442</v>
+      </c>
+      <c r="M49" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="1">
+        <v>2415</v>
+      </c>
+      <c r="M50" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" t="s">
+        <v>37</v>
+      </c>
+      <c r="L51" s="1">
+        <v>238</v>
+      </c>
+      <c r="M51" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="1">
+        <v>4949</v>
+      </c>
+      <c r="M52" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="1">
+        <v>5075</v>
+      </c>
+      <c r="M53" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54" s="1">
+        <v>9198</v>
+      </c>
+      <c r="M54" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" t="s">
+        <v>33</v>
+      </c>
+      <c r="L55" s="1">
+        <v>3339</v>
+      </c>
+      <c r="M55" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" s="1">
+        <v>5019</v>
+      </c>
+      <c r="M56" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" t="s">
+        <v>30</v>
+      </c>
+      <c r="L57" s="1">
+        <v>16184</v>
+      </c>
+      <c r="M57" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" t="s">
+        <v>42</v>
+      </c>
+      <c r="L58" s="1">
+        <v>497</v>
+      </c>
+      <c r="M58" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" s="1">
+        <v>8211</v>
+      </c>
+      <c r="M59" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I60" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" t="s">
+        <v>41</v>
+      </c>
+      <c r="L60" s="1">
+        <v>6580</v>
+      </c>
+      <c r="M60" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" s="1">
+        <v>4760</v>
+      </c>
+      <c r="M61" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="1">
+        <v>5439</v>
+      </c>
+      <c r="M62" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1463</v>
+      </c>
+      <c r="M63" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I64" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="1">
+        <v>7777</v>
+      </c>
+      <c r="M64" s="2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="65" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" t="s">
+        <v>7</v>
+      </c>
+      <c r="K65" t="s">
+        <v>33</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1085</v>
+      </c>
+      <c r="M65" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I66" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" t="s">
+        <v>7</v>
+      </c>
+      <c r="K66" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="1">
+        <v>182</v>
+      </c>
+      <c r="M66" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" t="s">
+        <v>40</v>
+      </c>
+      <c r="L67" s="1">
+        <v>4242</v>
+      </c>
+      <c r="M67" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" s="1">
+        <v>6118</v>
+      </c>
+      <c r="M68" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I69" t="s">
+        <v>36</v>
+      </c>
+      <c r="J69" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" t="s">
+        <v>35</v>
+      </c>
+      <c r="L69" s="1">
+        <v>2317</v>
+      </c>
+      <c r="M69" s="2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="1">
+        <v>938</v>
+      </c>
+      <c r="M70" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I71" t="s">
+        <v>9</v>
+      </c>
+      <c r="J71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K71" t="s">
+        <v>38</v>
+      </c>
+      <c r="L71" s="1">
+        <v>9709</v>
+      </c>
+      <c r="M71" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" t="s">
+        <v>34</v>
+      </c>
+      <c r="L72" s="1">
+        <v>2205</v>
+      </c>
+      <c r="M72" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K73" t="s">
+        <v>29</v>
+      </c>
+      <c r="L73" s="1">
+        <v>4487</v>
+      </c>
+      <c r="M73" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I74" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" t="s">
+        <v>10</v>
+      </c>
+      <c r="K74" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" s="1">
+        <v>2415</v>
+      </c>
+      <c r="M74" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I75" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" t="s">
+        <v>37</v>
+      </c>
+      <c r="L75" s="1">
+        <v>4018</v>
+      </c>
+      <c r="M75" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I76" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" t="s">
+        <v>31</v>
+      </c>
+      <c r="K76" t="s">
+        <v>37</v>
+      </c>
+      <c r="L76" s="1">
+        <v>861</v>
+      </c>
+      <c r="M76" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I77" t="s">
+        <v>36</v>
+      </c>
+      <c r="J77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" t="s">
+        <v>25</v>
+      </c>
+      <c r="L77" s="1">
+        <v>5586</v>
+      </c>
+      <c r="M77" s="2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="78" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" s="1">
+        <v>2226</v>
+      </c>
+      <c r="M78" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I79" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" t="s">
+        <v>31</v>
+      </c>
+      <c r="K79" t="s">
+        <v>41</v>
+      </c>
+      <c r="L79" s="1">
+        <v>14329</v>
+      </c>
+      <c r="M79" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I80" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" t="s">
+        <v>31</v>
+      </c>
+      <c r="K80" t="s">
+        <v>34</v>
+      </c>
+      <c r="L80" s="1">
+        <v>8463</v>
+      </c>
+      <c r="M80" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="81" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I81" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" t="s">
+        <v>33</v>
+      </c>
+      <c r="L81" s="1">
+        <v>2891</v>
+      </c>
+      <c r="M81" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I82" t="s">
+        <v>28</v>
+      </c>
+      <c r="J82" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" t="s">
+        <v>35</v>
+      </c>
+      <c r="L82" s="1">
+        <v>3773</v>
+      </c>
+      <c r="M82" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" t="s">
+        <v>15</v>
+      </c>
+      <c r="K83" t="s">
+        <v>41</v>
+      </c>
+      <c r="L83" s="1">
+        <v>854</v>
+      </c>
+      <c r="M83" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="84" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" t="s">
+        <v>15</v>
+      </c>
+      <c r="K84" t="s">
+        <v>29</v>
+      </c>
+      <c r="L84" s="1">
+        <v>4970</v>
+      </c>
+      <c r="M84" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I85" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" t="s">
+        <v>10</v>
+      </c>
+      <c r="K85" t="s">
+        <v>43</v>
+      </c>
+      <c r="L85" s="1">
+        <v>98</v>
+      </c>
+      <c r="M85" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" t="s">
+        <v>10</v>
+      </c>
+      <c r="K86" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="1">
+        <v>13391</v>
+      </c>
+      <c r="M86" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I87" t="s">
+        <v>9</v>
+      </c>
+      <c r="J87" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" s="1">
+        <v>8890</v>
+      </c>
+      <c r="M87" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I88" t="s">
+        <v>27</v>
+      </c>
+      <c r="J88" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" t="s">
+        <v>32</v>
+      </c>
+      <c r="L88" s="1">
+        <v>56</v>
+      </c>
+      <c r="M88" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I89" t="s">
+        <v>28</v>
+      </c>
+      <c r="J89" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89" s="1">
+        <v>3339</v>
+      </c>
+      <c r="M89" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I90" t="s">
+        <v>36</v>
+      </c>
+      <c r="J90" t="s">
+        <v>10</v>
+      </c>
+      <c r="K90" t="s">
+        <v>16</v>
+      </c>
+      <c r="L90" s="1">
+        <v>3808</v>
+      </c>
+      <c r="M90" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I91" t="s">
+        <v>36</v>
+      </c>
+      <c r="J91" t="s">
+        <v>21</v>
+      </c>
+      <c r="K91" t="s">
+        <v>32</v>
+      </c>
+      <c r="L91" s="1">
+        <v>63</v>
+      </c>
+      <c r="M91" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I92" t="s">
+        <v>27</v>
+      </c>
+      <c r="J92" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" t="s">
+        <v>40</v>
+      </c>
+      <c r="L92" s="1">
+        <v>7812</v>
+      </c>
+      <c r="M92" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I93" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93" t="s">
+        <v>7</v>
+      </c>
+      <c r="K93" t="s">
+        <v>37</v>
+      </c>
+      <c r="L93" s="1">
+        <v>7693</v>
+      </c>
+      <c r="M93" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I94" t="s">
+        <v>28</v>
+      </c>
+      <c r="J94" t="s">
+        <v>15</v>
+      </c>
+      <c r="K94" t="s">
+        <v>41</v>
+      </c>
+      <c r="L94" s="1">
+        <v>973</v>
+      </c>
+      <c r="M94" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J95" t="s">
+        <v>10</v>
+      </c>
+      <c r="K95" t="s">
+        <v>42</v>
+      </c>
+      <c r="L95" s="1">
+        <v>567</v>
+      </c>
+      <c r="M95" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J96" t="s">
+        <v>15</v>
+      </c>
+      <c r="K96" t="s">
+        <v>33</v>
+      </c>
+      <c r="L96" s="1">
+        <v>2471</v>
+      </c>
+      <c r="M96" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="97" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I97" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" t="s">
+        <v>32</v>
+      </c>
+      <c r="L97" s="1">
+        <v>7189</v>
+      </c>
+      <c r="M97" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" t="s">
+        <v>10</v>
+      </c>
+      <c r="K98" t="s">
+        <v>41</v>
+      </c>
+      <c r="L98" s="1">
+        <v>7455</v>
+      </c>
+      <c r="M98" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I99" t="s">
+        <v>28</v>
+      </c>
+      <c r="J99" t="s">
+        <v>31</v>
+      </c>
+      <c r="K99" t="s">
+        <v>43</v>
+      </c>
+      <c r="L99" s="1">
+        <v>3108</v>
+      </c>
+      <c r="M99" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" t="s">
+        <v>21</v>
+      </c>
+      <c r="K100" t="s">
+        <v>19</v>
+      </c>
+      <c r="L100" s="1">
+        <v>469</v>
+      </c>
+      <c r="M100" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I101" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" t="s">
+        <v>7</v>
+      </c>
+      <c r="K101" t="s">
+        <v>35</v>
+      </c>
+      <c r="L101" s="1">
+        <v>2737</v>
+      </c>
+      <c r="M101" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I102" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" t="s">
+        <v>7</v>
+      </c>
+      <c r="K102" t="s">
+        <v>19</v>
+      </c>
+      <c r="L102" s="1">
+        <v>4305</v>
+      </c>
+      <c r="M102" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I103" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103" t="s">
+        <v>21</v>
+      </c>
+      <c r="K103" t="s">
+        <v>29</v>
+      </c>
+      <c r="L103" s="1">
+        <v>2408</v>
+      </c>
+      <c r="M103" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I104" t="s">
+        <v>28</v>
+      </c>
+      <c r="J104" t="s">
+        <v>15</v>
+      </c>
+      <c r="K104" t="s">
+        <v>37</v>
+      </c>
+      <c r="L104" s="1">
+        <v>1281</v>
+      </c>
+      <c r="M104" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I105" t="s">
+        <v>6</v>
+      </c>
+      <c r="J105" t="s">
+        <v>10</v>
+      </c>
+      <c r="K105" t="s">
+        <v>11</v>
+      </c>
+      <c r="L105" s="1">
+        <v>12348</v>
+      </c>
+      <c r="M105" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="106" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I106" t="s">
+        <v>28</v>
+      </c>
+      <c r="J106" t="s">
+        <v>31</v>
+      </c>
+      <c r="K106" t="s">
+        <v>41</v>
+      </c>
+      <c r="L106" s="1">
+        <v>3689</v>
+      </c>
+      <c r="M106" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I107" t="s">
+        <v>24</v>
+      </c>
+      <c r="J107" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107" t="s">
+        <v>37</v>
+      </c>
+      <c r="L107" s="1">
+        <v>2870</v>
+      </c>
+      <c r="M107" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I108" t="s">
+        <v>27</v>
+      </c>
+      <c r="J108" t="s">
+        <v>15</v>
+      </c>
+      <c r="K108" t="s">
+        <v>40</v>
+      </c>
+      <c r="L108" s="1">
+        <v>798</v>
+      </c>
+      <c r="M108" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="109" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+      <c r="J109" t="s">
+        <v>7</v>
+      </c>
+      <c r="K109" t="s">
+        <v>42</v>
+      </c>
+      <c r="L109" s="1">
+        <v>2933</v>
+      </c>
+      <c r="M109" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I110" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110" t="s">
+        <v>10</v>
+      </c>
+      <c r="K110" t="s">
+        <v>13</v>
+      </c>
+      <c r="L110" s="1">
+        <v>2744</v>
+      </c>
+      <c r="M110" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I111" t="s">
+        <v>6</v>
+      </c>
+      <c r="J111" t="s">
+        <v>15</v>
+      </c>
+      <c r="K111" t="s">
+        <v>20</v>
+      </c>
+      <c r="L111" s="1">
+        <v>9772</v>
+      </c>
+      <c r="M111" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J112" t="s">
+        <v>31</v>
+      </c>
+      <c r="K112" t="s">
+        <v>19</v>
+      </c>
+      <c r="L112" s="1">
+        <v>1568</v>
+      </c>
+      <c r="M112" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I113" t="s">
+        <v>27</v>
+      </c>
+      <c r="J113" t="s">
+        <v>15</v>
+      </c>
+      <c r="K113" t="s">
+        <v>30</v>
+      </c>
+      <c r="L113" s="1">
+        <v>11417</v>
+      </c>
+      <c r="M113" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I114" t="s">
+        <v>6</v>
+      </c>
+      <c r="J114" t="s">
+        <v>31</v>
+      </c>
+      <c r="K114" t="s">
+        <v>43</v>
+      </c>
+      <c r="L114" s="1">
+        <v>6748</v>
+      </c>
+      <c r="M114" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I115" t="s">
+        <v>36</v>
+      </c>
+      <c r="J115" t="s">
+        <v>15</v>
+      </c>
+      <c r="K115" t="s">
+        <v>40</v>
+      </c>
+      <c r="L115" s="1">
+        <v>1407</v>
+      </c>
+      <c r="M115" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I116" t="s">
+        <v>9</v>
+      </c>
+      <c r="J116" t="s">
+        <v>10</v>
+      </c>
+      <c r="K116" t="s">
+        <v>33</v>
+      </c>
+      <c r="L116" s="1">
+        <v>2023</v>
+      </c>
+      <c r="M116" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I117" t="s">
+        <v>26</v>
+      </c>
+      <c r="J117" t="s">
+        <v>18</v>
+      </c>
+      <c r="K117" t="s">
+        <v>43</v>
+      </c>
+      <c r="L117" s="1">
+        <v>5236</v>
+      </c>
+      <c r="M117" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118" t="s">
+        <v>15</v>
+      </c>
+      <c r="K118" t="s">
+        <v>37</v>
+      </c>
+      <c r="L118" s="1">
+        <v>1925</v>
+      </c>
+      <c r="M118" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="119" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I119" t="s">
+        <v>24</v>
+      </c>
+      <c r="J119" t="s">
+        <v>7</v>
+      </c>
+      <c r="K119" t="s">
+        <v>25</v>
+      </c>
+      <c r="L119" s="1">
+        <v>6608</v>
+      </c>
+      <c r="M119" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="120" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120" t="s">
+        <v>31</v>
+      </c>
+      <c r="K120" t="s">
+        <v>43</v>
+      </c>
+      <c r="L120" s="1">
+        <v>8008</v>
+      </c>
+      <c r="M120" s="2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="121" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I121" t="s">
+        <v>36</v>
+      </c>
+      <c r="J121" t="s">
+        <v>31</v>
+      </c>
+      <c r="K121" t="s">
+        <v>19</v>
+      </c>
+      <c r="L121" s="1">
+        <v>1428</v>
+      </c>
+      <c r="M121" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" t="s">
+        <v>31</v>
+      </c>
+      <c r="K122" t="s">
+        <v>13</v>
+      </c>
+      <c r="L122" s="1">
+        <v>525</v>
+      </c>
+      <c r="M122" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I123" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123" t="s">
+        <v>7</v>
+      </c>
+      <c r="K123" t="s">
+        <v>16</v>
+      </c>
+      <c r="L123" s="1">
+        <v>1505</v>
+      </c>
+      <c r="M123" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I124" t="s">
+        <v>24</v>
+      </c>
+      <c r="J124" t="s">
+        <v>10</v>
+      </c>
+      <c r="K124" t="s">
+        <v>8</v>
+      </c>
+      <c r="L124" s="1">
+        <v>6755</v>
+      </c>
+      <c r="M124" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I125" t="s">
+        <v>27</v>
+      </c>
+      <c r="J125" t="s">
+        <v>7</v>
+      </c>
+      <c r="K125" t="s">
+        <v>16</v>
+      </c>
+      <c r="L125" s="1">
+        <v>11571</v>
+      </c>
+      <c r="M125" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I126" t="s">
+        <v>6</v>
+      </c>
+      <c r="J126" t="s">
+        <v>21</v>
+      </c>
+      <c r="K126" t="s">
+        <v>19</v>
+      </c>
+      <c r="L126" s="1">
+        <v>2541</v>
+      </c>
+      <c r="M126" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J127" t="s">
+        <v>7</v>
+      </c>
+      <c r="K127" t="s">
+        <v>8</v>
+      </c>
+      <c r="L127" s="1">
+        <v>1526</v>
+      </c>
+      <c r="M127" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="128" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I128" t="s">
+        <v>6</v>
+      </c>
+      <c r="J128" t="s">
+        <v>21</v>
+      </c>
+      <c r="K128" t="s">
+        <v>13</v>
+      </c>
+      <c r="L128" s="1">
+        <v>6125</v>
+      </c>
+      <c r="M128" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+      <c r="J129" t="s">
+        <v>10</v>
+      </c>
+      <c r="K129" t="s">
+        <v>40</v>
+      </c>
+      <c r="L129" s="1">
+        <v>847</v>
+      </c>
+      <c r="M129" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I130" t="s">
+        <v>9</v>
+      </c>
+      <c r="J130" t="s">
+        <v>10</v>
+      </c>
+      <c r="K130" t="s">
+        <v>40</v>
+      </c>
+      <c r="L130" s="1">
+        <v>4753</v>
+      </c>
+      <c r="M130" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="131" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" t="s">
+        <v>21</v>
+      </c>
+      <c r="K131" t="s">
+        <v>20</v>
+      </c>
+      <c r="L131" s="1">
+        <v>959</v>
+      </c>
+      <c r="M131" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I132" t="s">
+        <v>24</v>
+      </c>
+      <c r="J132" t="s">
+        <v>10</v>
+      </c>
+      <c r="K132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L132" s="1">
+        <v>2793</v>
+      </c>
+      <c r="M132" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I133" t="s">
+        <v>24</v>
+      </c>
+      <c r="J133" t="s">
+        <v>10</v>
+      </c>
+      <c r="K133" t="s">
+        <v>25</v>
+      </c>
+      <c r="L133" s="1">
+        <v>4606</v>
+      </c>
+      <c r="M133" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="134" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I134" t="s">
+        <v>24</v>
+      </c>
+      <c r="J134" t="s">
+        <v>15</v>
+      </c>
+      <c r="K134" t="s">
+        <v>33</v>
+      </c>
+      <c r="L134" s="1">
+        <v>5551</v>
+      </c>
+      <c r="M134" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="135" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I135" t="s">
+        <v>36</v>
+      </c>
+      <c r="J135" t="s">
+        <v>15</v>
+      </c>
+      <c r="K135" t="s">
+        <v>11</v>
+      </c>
+      <c r="L135" s="1">
+        <v>6657</v>
+      </c>
+      <c r="M135" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="136" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I136" t="s">
+        <v>24</v>
+      </c>
+      <c r="J136" t="s">
+        <v>18</v>
+      </c>
+      <c r="K136" t="s">
+        <v>29</v>
+      </c>
+      <c r="L136" s="1">
+        <v>4438</v>
+      </c>
+      <c r="M136" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="137" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I137" t="s">
+        <v>9</v>
+      </c>
+      <c r="J137" t="s">
+        <v>21</v>
+      </c>
+      <c r="K137" t="s">
+        <v>23</v>
+      </c>
+      <c r="L137" s="1">
+        <v>168</v>
+      </c>
+      <c r="M137" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I138" t="s">
+        <v>24</v>
+      </c>
+      <c r="J138" t="s">
+        <v>31</v>
+      </c>
+      <c r="K138" t="s">
+        <v>29</v>
+      </c>
+      <c r="L138" s="1">
+        <v>7777</v>
+      </c>
+      <c r="M138" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I139" t="s">
+        <v>26</v>
+      </c>
+      <c r="J139" t="s">
+        <v>15</v>
+      </c>
+      <c r="K139" t="s">
+        <v>29</v>
+      </c>
+      <c r="L139" s="1">
+        <v>3339</v>
+      </c>
+      <c r="M139" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="140" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I140" t="s">
+        <v>24</v>
+      </c>
+      <c r="J140" t="s">
+        <v>7</v>
+      </c>
+      <c r="K140" t="s">
+        <v>20</v>
+      </c>
+      <c r="L140" s="1">
+        <v>6391</v>
+      </c>
+      <c r="M140" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I141" t="s">
+        <v>26</v>
+      </c>
+      <c r="J141" t="s">
+        <v>7</v>
+      </c>
+      <c r="K141" t="s">
+        <v>23</v>
+      </c>
+      <c r="L141" s="1">
+        <v>518</v>
+      </c>
+      <c r="M141" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I142" t="s">
+        <v>24</v>
+      </c>
+      <c r="J142" t="s">
+        <v>21</v>
+      </c>
+      <c r="K142" t="s">
+        <v>41</v>
+      </c>
+      <c r="L142" s="1">
+        <v>5677</v>
+      </c>
+      <c r="M142" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="143" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I143" t="s">
+        <v>17</v>
+      </c>
+      <c r="J143" t="s">
+        <v>18</v>
+      </c>
+      <c r="K143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L143" s="1">
+        <v>6048</v>
+      </c>
+      <c r="M143" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I144" t="s">
+        <v>9</v>
+      </c>
+      <c r="J144" t="s">
+        <v>21</v>
+      </c>
+      <c r="K144" t="s">
+        <v>11</v>
+      </c>
+      <c r="L144" s="1">
+        <v>3752</v>
+      </c>
+      <c r="M144" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="145" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I145" t="s">
+        <v>26</v>
+      </c>
+      <c r="J145" t="s">
+        <v>10</v>
+      </c>
+      <c r="K145" t="s">
+        <v>33</v>
+      </c>
+      <c r="L145" s="1">
+        <v>4480</v>
+      </c>
+      <c r="M145" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="146" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I146" t="s">
+        <v>12</v>
+      </c>
+      <c r="J146" t="s">
+        <v>7</v>
+      </c>
+      <c r="K146" t="s">
+        <v>13</v>
+      </c>
+      <c r="L146" s="1">
+        <v>259</v>
+      </c>
+      <c r="M146" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="147" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I147" t="s">
+        <v>9</v>
+      </c>
+      <c r="J147" t="s">
+        <v>7</v>
+      </c>
+      <c r="K147" t="s">
+        <v>8</v>
+      </c>
+      <c r="L147" s="1">
+        <v>42</v>
+      </c>
+      <c r="M147" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I148" t="s">
+        <v>14</v>
+      </c>
+      <c r="J148" t="s">
+        <v>15</v>
+      </c>
+      <c r="K148" t="s">
+        <v>43</v>
+      </c>
+      <c r="L148" s="1">
+        <v>98</v>
+      </c>
+      <c r="M148" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I149" t="s">
+        <v>24</v>
+      </c>
+      <c r="J149" t="s">
+        <v>10</v>
+      </c>
+      <c r="K149" t="s">
+        <v>40</v>
+      </c>
+      <c r="L149" s="1">
+        <v>2478</v>
+      </c>
+      <c r="M149" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I150" t="s">
+        <v>14</v>
+      </c>
+      <c r="J150" t="s">
+        <v>31</v>
+      </c>
+      <c r="K150" t="s">
+        <v>20</v>
+      </c>
+      <c r="L150" s="1">
+        <v>7847</v>
+      </c>
+      <c r="M150" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="151" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I151" t="s">
+        <v>27</v>
+      </c>
+      <c r="J151" t="s">
+        <v>7</v>
+      </c>
+      <c r="K151" t="s">
+        <v>29</v>
+      </c>
+      <c r="L151" s="1">
+        <v>9926</v>
+      </c>
+      <c r="M151" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="152" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I152" t="s">
+        <v>9</v>
+      </c>
+      <c r="J152" t="s">
+        <v>21</v>
+      </c>
+      <c r="K152" t="s">
+        <v>32</v>
+      </c>
+      <c r="L152" s="1">
+        <v>819</v>
+      </c>
+      <c r="M152" s="2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="153" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I153" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" t="s">
+        <v>18</v>
+      </c>
+      <c r="K153" t="s">
+        <v>33</v>
+      </c>
+      <c r="L153" s="1">
+        <v>3052</v>
+      </c>
+      <c r="M153" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="154" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I154" t="s">
+        <v>12</v>
+      </c>
+      <c r="J154" t="s">
+        <v>31</v>
+      </c>
+      <c r="K154" t="s">
+        <v>42</v>
+      </c>
+      <c r="L154" s="1">
+        <v>6832</v>
+      </c>
+      <c r="M154" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I155" t="s">
+        <v>27</v>
+      </c>
+      <c r="J155" t="s">
+        <v>18</v>
+      </c>
+      <c r="K155" t="s">
+        <v>30</v>
+      </c>
+      <c r="L155" s="1">
+        <v>2016</v>
+      </c>
+      <c r="M155" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="156" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I156" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156" t="s">
+        <v>21</v>
+      </c>
+      <c r="K156" t="s">
+        <v>42</v>
+      </c>
+      <c r="L156" s="1">
+        <v>7322</v>
+      </c>
+      <c r="M156" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I157" t="s">
+        <v>9</v>
+      </c>
+      <c r="J157" t="s">
+        <v>10</v>
+      </c>
+      <c r="K157" t="s">
+        <v>20</v>
+      </c>
+      <c r="L157" s="1">
+        <v>357</v>
+      </c>
+      <c r="M157" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="158" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I158" t="s">
+        <v>12</v>
+      </c>
+      <c r="J158" t="s">
+        <v>18</v>
+      </c>
+      <c r="K158" t="s">
+        <v>19</v>
+      </c>
+      <c r="L158" s="1">
+        <v>3192</v>
+      </c>
+      <c r="M158" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="159" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I159" t="s">
+        <v>24</v>
+      </c>
+      <c r="J159" t="s">
+        <v>15</v>
+      </c>
+      <c r="K159" t="s">
+        <v>23</v>
+      </c>
+      <c r="L159" s="1">
+        <v>8435</v>
+      </c>
+      <c r="M159" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I160" t="s">
+        <v>6</v>
+      </c>
+      <c r="J160" t="s">
+        <v>18</v>
+      </c>
+      <c r="K160" t="s">
+        <v>33</v>
+      </c>
+      <c r="L160" s="1">
+        <v>0</v>
+      </c>
+      <c r="M160" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="161" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I161" t="s">
+        <v>24</v>
+      </c>
+      <c r="J161" t="s">
+        <v>31</v>
+      </c>
+      <c r="K161" t="s">
+        <v>39</v>
+      </c>
+      <c r="L161" s="1">
+        <v>8862</v>
+      </c>
+      <c r="M161" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="162" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I162" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162" t="s">
+        <v>7</v>
+      </c>
+      <c r="K162" t="s">
+        <v>41</v>
+      </c>
+      <c r="L162" s="1">
+        <v>3556</v>
+      </c>
+      <c r="M162" s="2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="163" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I163" t="s">
+        <v>26</v>
+      </c>
+      <c r="J163" t="s">
+        <v>31</v>
+      </c>
+      <c r="K163" t="s">
+        <v>38</v>
+      </c>
+      <c r="L163" s="1">
+        <v>7280</v>
+      </c>
+      <c r="M163" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="164" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I164" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" t="s">
+        <v>31</v>
+      </c>
+      <c r="K164" t="s">
+        <v>8</v>
+      </c>
+      <c r="L164" s="1">
+        <v>3402</v>
+      </c>
+      <c r="M164" s="2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="165" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I165" t="s">
+        <v>28</v>
+      </c>
+      <c r="J165" t="s">
+        <v>7</v>
+      </c>
+      <c r="K165" t="s">
+        <v>33</v>
+      </c>
+      <c r="L165" s="1">
+        <v>4592</v>
+      </c>
+      <c r="M165" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="166" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I166" t="s">
+        <v>12</v>
+      </c>
+      <c r="J166" t="s">
+        <v>10</v>
+      </c>
+      <c r="K166" t="s">
+        <v>38</v>
+      </c>
+      <c r="L166" s="1">
+        <v>7833</v>
+      </c>
+      <c r="M166" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="167" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I167" t="s">
+        <v>27</v>
+      </c>
+      <c r="J167" t="s">
+        <v>18</v>
+      </c>
+      <c r="K167" t="s">
+        <v>42</v>
+      </c>
+      <c r="L167" s="1">
+        <v>7651</v>
+      </c>
+      <c r="M167" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="168" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I168" t="s">
+        <v>6</v>
+      </c>
+      <c r="J168" t="s">
+        <v>10</v>
+      </c>
+      <c r="K168" t="s">
+        <v>8</v>
+      </c>
+      <c r="L168" s="1">
+        <v>2275</v>
+      </c>
+      <c r="M168" s="2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="169" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I169" t="s">
+        <v>6</v>
+      </c>
+      <c r="J169" t="s">
+        <v>21</v>
+      </c>
+      <c r="K169" t="s">
+        <v>32</v>
+      </c>
+      <c r="L169" s="1">
+        <v>5670</v>
+      </c>
+      <c r="M169" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="170" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I170" t="s">
+        <v>24</v>
+      </c>
+      <c r="J170" t="s">
+        <v>10</v>
+      </c>
+      <c r="K170" t="s">
+        <v>30</v>
+      </c>
+      <c r="L170" s="1">
+        <v>2135</v>
+      </c>
+      <c r="M170" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I171" t="s">
+        <v>6</v>
+      </c>
+      <c r="J171" t="s">
+        <v>31</v>
+      </c>
+      <c r="K171" t="s">
+        <v>35</v>
+      </c>
+      <c r="L171" s="1">
+        <v>2779</v>
+      </c>
+      <c r="M171" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="172" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I172" t="s">
+        <v>36</v>
+      </c>
+      <c r="J172" t="s">
+        <v>18</v>
+      </c>
+      <c r="K172" t="s">
+        <v>20</v>
+      </c>
+      <c r="L172" s="1">
+        <v>12950</v>
+      </c>
+      <c r="M172" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I173" t="s">
+        <v>24</v>
+      </c>
+      <c r="J173" t="s">
+        <v>15</v>
+      </c>
+      <c r="K173" t="s">
+        <v>16</v>
+      </c>
+      <c r="L173" s="1">
+        <v>2646</v>
+      </c>
+      <c r="M173" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="174" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I174" t="s">
+        <v>6</v>
+      </c>
+      <c r="J174" t="s">
+        <v>31</v>
+      </c>
+      <c r="K174" t="s">
+        <v>20</v>
+      </c>
+      <c r="L174" s="1">
+        <v>3794</v>
+      </c>
+      <c r="M174" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="175" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I175" t="s">
+        <v>28</v>
+      </c>
+      <c r="J175" t="s">
+        <v>10</v>
+      </c>
+      <c r="K175" t="s">
+        <v>20</v>
+      </c>
+      <c r="L175" s="1">
+        <v>819</v>
+      </c>
+      <c r="M175" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="176" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I176" t="s">
+        <v>28</v>
+      </c>
+      <c r="J176" t="s">
+        <v>31</v>
+      </c>
+      <c r="K176" t="s">
+        <v>34</v>
+      </c>
+      <c r="L176" s="1">
+        <v>2583</v>
+      </c>
+      <c r="M176" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I177" t="s">
+        <v>24</v>
+      </c>
+      <c r="J177" t="s">
+        <v>10</v>
+      </c>
+      <c r="K177" t="s">
+        <v>37</v>
+      </c>
+      <c r="L177" s="1">
+        <v>4585</v>
+      </c>
+      <c r="M177" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="178" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I178" t="s">
+        <v>26</v>
+      </c>
+      <c r="J178" t="s">
+        <v>31</v>
+      </c>
+      <c r="K178" t="s">
+        <v>20</v>
+      </c>
+      <c r="L178" s="1">
+        <v>1652</v>
+      </c>
+      <c r="M178" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="179" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I179" t="s">
+        <v>36</v>
+      </c>
+      <c r="J179" t="s">
+        <v>31</v>
+      </c>
+      <c r="K179" t="s">
+        <v>43</v>
+      </c>
+      <c r="L179" s="1">
+        <v>4991</v>
+      </c>
+      <c r="M179" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I180" t="s">
+        <v>9</v>
+      </c>
+      <c r="J180" t="s">
+        <v>31</v>
+      </c>
+      <c r="K180" t="s">
+        <v>30</v>
+      </c>
+      <c r="L180" s="1">
+        <v>2009</v>
+      </c>
+      <c r="M180" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="181" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I181" t="s">
+        <v>27</v>
+      </c>
+      <c r="J181" t="s">
+        <v>18</v>
+      </c>
+      <c r="K181" t="s">
+        <v>23</v>
+      </c>
+      <c r="L181" s="1">
+        <v>1568</v>
+      </c>
+      <c r="M181" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="182" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I182" t="s">
+        <v>14</v>
+      </c>
+      <c r="J182" t="s">
+        <v>7</v>
+      </c>
+      <c r="K182" t="s">
+        <v>34</v>
+      </c>
+      <c r="L182" s="1">
+        <v>3388</v>
+      </c>
+      <c r="M182" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="183" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I183" t="s">
+        <v>6</v>
+      </c>
+      <c r="J183" t="s">
+        <v>21</v>
+      </c>
+      <c r="K183" t="s">
+        <v>39</v>
+      </c>
+      <c r="L183" s="1">
+        <v>623</v>
+      </c>
+      <c r="M183" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="184" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I184" t="s">
+        <v>17</v>
+      </c>
+      <c r="J184" t="s">
+        <v>15</v>
+      </c>
+      <c r="K184" t="s">
+        <v>13</v>
+      </c>
+      <c r="L184" s="1">
+        <v>10073</v>
+      </c>
+      <c r="M184" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="185" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I185" t="s">
+        <v>9</v>
+      </c>
+      <c r="J185" t="s">
+        <v>18</v>
+      </c>
+      <c r="K185" t="s">
+        <v>43</v>
+      </c>
+      <c r="L185" s="1">
+        <v>1561</v>
+      </c>
+      <c r="M185" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="186" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I186" t="s">
+        <v>12</v>
+      </c>
+      <c r="J186" t="s">
+        <v>15</v>
+      </c>
+      <c r="K186" t="s">
+        <v>40</v>
+      </c>
+      <c r="L186" s="1">
+        <v>11522</v>
+      </c>
+      <c r="M186" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="187" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I187" t="s">
+        <v>17</v>
+      </c>
+      <c r="J187" t="s">
+        <v>21</v>
+      </c>
+      <c r="K187" t="s">
+        <v>32</v>
+      </c>
+      <c r="L187" s="1">
+        <v>2317</v>
+      </c>
+      <c r="M187" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="188" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I188" t="s">
+        <v>36</v>
+      </c>
+      <c r="J188" t="s">
+        <v>7</v>
+      </c>
+      <c r="K188" t="s">
+        <v>41</v>
+      </c>
+      <c r="L188" s="1">
+        <v>3059</v>
+      </c>
+      <c r="M188" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="189" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I189" t="s">
+        <v>14</v>
+      </c>
+      <c r="J189" t="s">
+        <v>7</v>
+      </c>
+      <c r="K189" t="s">
+        <v>43</v>
+      </c>
+      <c r="L189" s="1">
+        <v>2324</v>
+      </c>
+      <c r="M189" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="190" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I190" t="s">
+        <v>28</v>
+      </c>
+      <c r="J190" t="s">
+        <v>18</v>
+      </c>
+      <c r="K190" t="s">
+        <v>43</v>
+      </c>
+      <c r="L190" s="1">
+        <v>4956</v>
+      </c>
+      <c r="M190" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="191" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I191" t="s">
+        <v>36</v>
+      </c>
+      <c r="J191" t="s">
+        <v>31</v>
+      </c>
+      <c r="K191" t="s">
+        <v>37</v>
+      </c>
+      <c r="L191" s="1">
+        <v>5355</v>
+      </c>
+      <c r="M191" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="192" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I192" t="s">
+        <v>28</v>
+      </c>
+      <c r="J192" t="s">
+        <v>31</v>
+      </c>
+      <c r="K192" t="s">
+        <v>25</v>
+      </c>
+      <c r="L192" s="1">
+        <v>7259</v>
+      </c>
+      <c r="M192" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="193" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I193" t="s">
+        <v>9</v>
+      </c>
+      <c r="J193" t="s">
+        <v>7</v>
+      </c>
+      <c r="K193" t="s">
+        <v>43</v>
+      </c>
+      <c r="L193" s="1">
+        <v>6279</v>
+      </c>
+      <c r="M193" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="194" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I194" t="s">
+        <v>6</v>
+      </c>
+      <c r="J194" t="s">
+        <v>21</v>
+      </c>
+      <c r="K194" t="s">
+        <v>33</v>
+      </c>
+      <c r="L194" s="1">
+        <v>2541</v>
+      </c>
+      <c r="M194" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="195" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I195" t="s">
+        <v>17</v>
+      </c>
+      <c r="J195" t="s">
+        <v>10</v>
+      </c>
+      <c r="K195" t="s">
+        <v>40</v>
+      </c>
+      <c r="L195" s="1">
+        <v>3864</v>
+      </c>
+      <c r="M195" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="196" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I196" t="s">
+        <v>26</v>
+      </c>
+      <c r="J196" t="s">
+        <v>15</v>
+      </c>
+      <c r="K196" t="s">
+        <v>32</v>
+      </c>
+      <c r="L196" s="1">
+        <v>6146</v>
+      </c>
+      <c r="M196" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="197" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I197" t="s">
+        <v>12</v>
+      </c>
+      <c r="J197" t="s">
+        <v>18</v>
+      </c>
+      <c r="K197" t="s">
+        <v>16</v>
+      </c>
+      <c r="L197" s="1">
+        <v>2639</v>
+      </c>
+      <c r="M197" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="198" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I198" t="s">
+        <v>9</v>
+      </c>
+      <c r="J198" t="s">
+        <v>7</v>
+      </c>
+      <c r="K198" t="s">
+        <v>23</v>
+      </c>
+      <c r="L198" s="1">
+        <v>1890</v>
+      </c>
+      <c r="M198" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I199" t="s">
+        <v>24</v>
+      </c>
+      <c r="J199" t="s">
+        <v>31</v>
+      </c>
+      <c r="K199" t="s">
+        <v>25</v>
+      </c>
+      <c r="L199" s="1">
+        <v>1932</v>
+      </c>
+      <c r="M199" s="2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="200" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I200" t="s">
+        <v>28</v>
+      </c>
+      <c r="J200" t="s">
+        <v>31</v>
+      </c>
+      <c r="K200" t="s">
+        <v>19</v>
+      </c>
+      <c r="L200" s="1">
+        <v>6300</v>
+      </c>
+      <c r="M200" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="201" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I201" t="s">
+        <v>17</v>
+      </c>
+      <c r="J201" t="s">
+        <v>7</v>
+      </c>
+      <c r="K201" t="s">
+        <v>8</v>
+      </c>
+      <c r="L201" s="1">
+        <v>560</v>
+      </c>
+      <c r="M201" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="202" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I202" t="s">
+        <v>12</v>
+      </c>
+      <c r="J202" t="s">
+        <v>7</v>
+      </c>
+      <c r="K202" t="s">
+        <v>43</v>
+      </c>
+      <c r="L202" s="1">
+        <v>2856</v>
+      </c>
+      <c r="M202" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="203" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I203" t="s">
+        <v>12</v>
+      </c>
+      <c r="J203" t="s">
+        <v>31</v>
+      </c>
+      <c r="K203" t="s">
+        <v>29</v>
+      </c>
+      <c r="L203" s="1">
+        <v>707</v>
+      </c>
+      <c r="M203" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="204" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I204" t="s">
+        <v>9</v>
+      </c>
+      <c r="J204" t="s">
+        <v>10</v>
+      </c>
+      <c r="K204" t="s">
+        <v>8</v>
+      </c>
+      <c r="L204" s="1">
+        <v>3598</v>
+      </c>
+      <c r="M204" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="205" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I205" t="s">
+        <v>6</v>
+      </c>
+      <c r="J205" t="s">
+        <v>10</v>
+      </c>
+      <c r="K205" t="s">
+        <v>23</v>
+      </c>
+      <c r="L205" s="1">
+        <v>6853</v>
+      </c>
+      <c r="M205" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="206" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I206" t="s">
+        <v>6</v>
+      </c>
+      <c r="J206" t="s">
+        <v>10</v>
+      </c>
+      <c r="K206" t="s">
+        <v>30</v>
+      </c>
+      <c r="L206" s="1">
+        <v>4725</v>
+      </c>
+      <c r="M206" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="207" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I207" t="s">
+        <v>14</v>
+      </c>
+      <c r="J207" t="s">
+        <v>15</v>
+      </c>
+      <c r="K207" t="s">
+        <v>11</v>
+      </c>
+      <c r="L207" s="1">
+        <v>10304</v>
+      </c>
+      <c r="M207" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="208" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I208" t="s">
+        <v>14</v>
+      </c>
+      <c r="J208" t="s">
+        <v>31</v>
+      </c>
+      <c r="K208" t="s">
+        <v>30</v>
+      </c>
+      <c r="L208" s="1">
+        <v>1274</v>
+      </c>
+      <c r="M208" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="209" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I209" t="s">
+        <v>26</v>
+      </c>
+      <c r="J209" t="s">
+        <v>15</v>
+      </c>
+      <c r="K209" t="s">
+        <v>8</v>
+      </c>
+      <c r="L209" s="1">
+        <v>1526</v>
+      </c>
+      <c r="M209" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="210" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I210" t="s">
+        <v>6</v>
+      </c>
+      <c r="J210" t="s">
+        <v>18</v>
+      </c>
+      <c r="K210" t="s">
+        <v>41</v>
+      </c>
+      <c r="L210" s="1">
+        <v>3101</v>
+      </c>
+      <c r="M210" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="211" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I211" t="s">
+        <v>27</v>
+      </c>
+      <c r="J211" t="s">
+        <v>7</v>
+      </c>
+      <c r="K211" t="s">
+        <v>25</v>
+      </c>
+      <c r="L211" s="1">
+        <v>1057</v>
+      </c>
+      <c r="M211" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="212" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I212" t="s">
+        <v>24</v>
+      </c>
+      <c r="J212" t="s">
+        <v>7</v>
+      </c>
+      <c r="K212" t="s">
+        <v>43</v>
+      </c>
+      <c r="L212" s="1">
+        <v>5306</v>
+      </c>
+      <c r="M212" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I213" t="s">
+        <v>26</v>
+      </c>
+      <c r="J213" t="s">
+        <v>18</v>
+      </c>
+      <c r="K213" t="s">
+        <v>39</v>
+      </c>
+      <c r="L213" s="1">
+        <v>4018</v>
+      </c>
+      <c r="M213" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="214" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I214" t="s">
+        <v>12</v>
+      </c>
+      <c r="J214" t="s">
+        <v>31</v>
+      </c>
+      <c r="K214" t="s">
+        <v>30</v>
+      </c>
+      <c r="L214" s="1">
+        <v>938</v>
+      </c>
+      <c r="M214" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="215" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I215" t="s">
+        <v>24</v>
+      </c>
+      <c r="J215" t="s">
+        <v>21</v>
+      </c>
+      <c r="K215" t="s">
+        <v>16</v>
+      </c>
+      <c r="L215" s="1">
+        <v>1778</v>
+      </c>
+      <c r="M215" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="216" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I216" t="s">
+        <v>17</v>
+      </c>
+      <c r="J216" t="s">
+        <v>18</v>
+      </c>
+      <c r="K216" t="s">
+        <v>8</v>
+      </c>
+      <c r="L216" s="1">
+        <v>1638</v>
+      </c>
+      <c r="M216" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="217" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I217" t="s">
+        <v>14</v>
+      </c>
+      <c r="J217" t="s">
+        <v>21</v>
+      </c>
+      <c r="K217" t="s">
+        <v>19</v>
+      </c>
+      <c r="L217" s="1">
+        <v>154</v>
+      </c>
+      <c r="M217" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I218" t="s">
+        <v>24</v>
+      </c>
+      <c r="J218" t="s">
+        <v>7</v>
+      </c>
+      <c r="K218" t="s">
+        <v>23</v>
+      </c>
+      <c r="L218" s="1">
+        <v>9835</v>
+      </c>
+      <c r="M218" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="219" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I219" t="s">
+        <v>12</v>
+      </c>
+      <c r="J219" t="s">
+        <v>7</v>
+      </c>
+      <c r="K219" t="s">
+        <v>34</v>
+      </c>
+      <c r="L219" s="1">
+        <v>7273</v>
+      </c>
+      <c r="M219" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="220" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I220" t="s">
+        <v>26</v>
+      </c>
+      <c r="J220" t="s">
+        <v>18</v>
+      </c>
+      <c r="K220" t="s">
+        <v>23</v>
+      </c>
+      <c r="L220" s="1">
+        <v>6909</v>
+      </c>
+      <c r="M220" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="221" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I221" t="s">
+        <v>12</v>
+      </c>
+      <c r="J221" t="s">
+        <v>18</v>
+      </c>
+      <c r="K221" t="s">
+        <v>39</v>
+      </c>
+      <c r="L221" s="1">
+        <v>3920</v>
+      </c>
+      <c r="M221" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="222" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I222" t="s">
+        <v>36</v>
+      </c>
+      <c r="J222" t="s">
+        <v>18</v>
+      </c>
+      <c r="K222" t="s">
+        <v>42</v>
+      </c>
+      <c r="L222" s="1">
+        <v>4858</v>
+      </c>
+      <c r="M222" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="223" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I223" t="s">
+        <v>27</v>
+      </c>
+      <c r="J223" t="s">
+        <v>21</v>
+      </c>
+      <c r="K223" t="s">
+        <v>13</v>
+      </c>
+      <c r="L223" s="1">
+        <v>3549</v>
+      </c>
+      <c r="M223" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I224" t="s">
+        <v>24</v>
+      </c>
+      <c r="J224" t="s">
+        <v>18</v>
+      </c>
+      <c r="K224" t="s">
+        <v>40</v>
+      </c>
+      <c r="L224" s="1">
+        <v>966</v>
+      </c>
+      <c r="M224" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="225" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I225" t="s">
+        <v>26</v>
+      </c>
+      <c r="J225" t="s">
+        <v>18</v>
+      </c>
+      <c r="K225" t="s">
+        <v>16</v>
+      </c>
+      <c r="L225" s="1">
+        <v>385</v>
+      </c>
+      <c r="M225" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="226" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I226" t="s">
+        <v>17</v>
+      </c>
+      <c r="J226" t="s">
+        <v>31</v>
+      </c>
+      <c r="K226" t="s">
+        <v>30</v>
+      </c>
+      <c r="L226" s="1">
+        <v>2219</v>
+      </c>
+      <c r="M226" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="227" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I227" t="s">
+        <v>12</v>
+      </c>
+      <c r="J227" t="s">
+        <v>15</v>
+      </c>
+      <c r="K227" t="s">
+        <v>11</v>
+      </c>
+      <c r="L227" s="1">
+        <v>2954</v>
+      </c>
+      <c r="M227" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="228" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I228" t="s">
+        <v>24</v>
+      </c>
+      <c r="J228" t="s">
+        <v>15</v>
+      </c>
+      <c r="K228" t="s">
+        <v>11</v>
+      </c>
+      <c r="L228" s="1">
+        <v>280</v>
+      </c>
+      <c r="M228" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="229" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I229" t="s">
+        <v>14</v>
+      </c>
+      <c r="J229" t="s">
+        <v>15</v>
+      </c>
+      <c r="K229" t="s">
+        <v>8</v>
+      </c>
+      <c r="L229" s="1">
+        <v>6118</v>
+      </c>
+      <c r="M229" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="230" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I230" t="s">
+        <v>27</v>
+      </c>
+      <c r="J230" t="s">
+        <v>18</v>
+      </c>
+      <c r="K230" t="s">
+        <v>38</v>
+      </c>
+      <c r="L230" s="1">
+        <v>4802</v>
+      </c>
+      <c r="M230" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="231" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I231" t="s">
+        <v>12</v>
+      </c>
+      <c r="J231" t="s">
+        <v>21</v>
+      </c>
+      <c r="K231" t="s">
+        <v>39</v>
+      </c>
+      <c r="L231" s="1">
+        <v>4137</v>
+      </c>
+      <c r="M231" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="232" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I232" t="s">
+        <v>28</v>
+      </c>
+      <c r="J232" t="s">
+        <v>10</v>
+      </c>
+      <c r="K232" t="s">
+        <v>35</v>
+      </c>
+      <c r="L232" s="1">
+        <v>2023</v>
+      </c>
+      <c r="M232" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="233" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I233" t="s">
+        <v>12</v>
+      </c>
+      <c r="J233" t="s">
+        <v>15</v>
+      </c>
+      <c r="K233" t="s">
+        <v>8</v>
+      </c>
+      <c r="L233" s="1">
+        <v>9051</v>
+      </c>
+      <c r="M233" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="234" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I234" t="s">
+        <v>12</v>
+      </c>
+      <c r="J234" t="s">
+        <v>7</v>
+      </c>
+      <c r="K234" t="s">
+        <v>41</v>
+      </c>
+      <c r="L234" s="1">
+        <v>2919</v>
+      </c>
+      <c r="M234" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="235" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I235" t="s">
+        <v>14</v>
+      </c>
+      <c r="J235" t="s">
+        <v>21</v>
+      </c>
+      <c r="K235" t="s">
+        <v>23</v>
+      </c>
+      <c r="L235" s="1">
+        <v>5915</v>
+      </c>
+      <c r="M235" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I236" t="s">
+        <v>36</v>
+      </c>
+      <c r="J236" t="s">
+        <v>10</v>
+      </c>
+      <c r="K236" t="s">
+        <v>38</v>
+      </c>
+      <c r="L236" s="1">
+        <v>2562</v>
+      </c>
+      <c r="M236" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I237" t="s">
+        <v>26</v>
+      </c>
+      <c r="J237" t="s">
+        <v>7</v>
+      </c>
+      <c r="K237" t="s">
+        <v>19</v>
+      </c>
+      <c r="L237" s="1">
+        <v>8813</v>
+      </c>
+      <c r="M237" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I238" t="s">
+        <v>26</v>
+      </c>
+      <c r="J238" t="s">
+        <v>15</v>
+      </c>
+      <c r="K238" t="s">
+        <v>16</v>
+      </c>
+      <c r="L238" s="1">
+        <v>6111</v>
+      </c>
+      <c r="M238" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I239" t="s">
+        <v>9</v>
+      </c>
+      <c r="J239" t="s">
+        <v>31</v>
+      </c>
+      <c r="K239" t="s">
+        <v>22</v>
+      </c>
+      <c r="L239" s="1">
+        <v>3507</v>
+      </c>
+      <c r="M239" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="240" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I240" t="s">
+        <v>17</v>
+      </c>
+      <c r="J240" t="s">
+        <v>15</v>
+      </c>
+      <c r="K240" t="s">
+        <v>32</v>
+      </c>
+      <c r="L240" s="1">
+        <v>4319</v>
+      </c>
+      <c r="M240" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I241" t="s">
+        <v>6</v>
+      </c>
+      <c r="J241" t="s">
+        <v>21</v>
+      </c>
+      <c r="K241" t="s">
+        <v>43</v>
+      </c>
+      <c r="L241" s="1">
+        <v>609</v>
+      </c>
+      <c r="M241" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="242" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I242" t="s">
+        <v>6</v>
+      </c>
+      <c r="J242" t="s">
+        <v>18</v>
+      </c>
+      <c r="K242" t="s">
+        <v>40</v>
+      </c>
+      <c r="L242" s="1">
+        <v>6370</v>
+      </c>
+      <c r="M242" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I243" t="s">
+        <v>26</v>
+      </c>
+      <c r="J243" t="s">
+        <v>21</v>
+      </c>
+      <c r="K243" t="s">
+        <v>37</v>
+      </c>
+      <c r="L243" s="1">
+        <v>5474</v>
+      </c>
+      <c r="M243" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="244" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I244" t="s">
+        <v>6</v>
+      </c>
+      <c r="J244" t="s">
+        <v>15</v>
+      </c>
+      <c r="K244" t="s">
+        <v>40</v>
+      </c>
+      <c r="L244" s="1">
+        <v>3164</v>
+      </c>
+      <c r="M244" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="245" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I245" t="s">
+        <v>17</v>
+      </c>
+      <c r="J245" t="s">
+        <v>10</v>
+      </c>
+      <c r="K245" t="s">
+        <v>13</v>
+      </c>
+      <c r="L245" s="1">
+        <v>1302</v>
+      </c>
+      <c r="M245" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="246" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I246" t="s">
+        <v>28</v>
+      </c>
+      <c r="J246" t="s">
+        <v>7</v>
+      </c>
+      <c r="K246" t="s">
+        <v>41</v>
+      </c>
+      <c r="L246" s="1">
+        <v>7308</v>
+      </c>
+      <c r="M246" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="247" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I247" t="s">
+        <v>6</v>
+      </c>
+      <c r="J247" t="s">
+        <v>7</v>
+      </c>
+      <c r="K247" t="s">
+        <v>40</v>
+      </c>
+      <c r="L247" s="1">
+        <v>6132</v>
+      </c>
+      <c r="M247" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="248" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I248" t="s">
+        <v>36</v>
+      </c>
+      <c r="J248" t="s">
+        <v>10</v>
+      </c>
+      <c r="K248" t="s">
+        <v>25</v>
+      </c>
+      <c r="L248" s="1">
+        <v>3472</v>
+      </c>
+      <c r="M248" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="249" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I249" t="s">
+        <v>9</v>
+      </c>
+      <c r="J249" t="s">
+        <v>18</v>
+      </c>
+      <c r="K249" t="s">
+        <v>16</v>
+      </c>
+      <c r="L249" s="1">
+        <v>9660</v>
+      </c>
+      <c r="M249" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="250" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I250" t="s">
+        <v>12</v>
+      </c>
+      <c r="J250" t="s">
+        <v>21</v>
+      </c>
+      <c r="K250" t="s">
+        <v>43</v>
+      </c>
+      <c r="L250" s="1">
+        <v>2436</v>
+      </c>
+      <c r="M250" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="251" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I251" t="s">
+        <v>12</v>
+      </c>
+      <c r="J251" t="s">
+        <v>21</v>
+      </c>
+      <c r="K251" t="s">
+        <v>20</v>
+      </c>
+      <c r="L251" s="1">
+        <v>9506</v>
+      </c>
+      <c r="M251" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="252" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I252" t="s">
+        <v>36</v>
+      </c>
+      <c r="J252" t="s">
+        <v>7</v>
+      </c>
+      <c r="K252" t="s">
+        <v>42</v>
+      </c>
+      <c r="L252" s="1">
+        <v>245</v>
+      </c>
+      <c r="M252" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="253" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I253" t="s">
+        <v>9</v>
+      </c>
+      <c r="J253" t="s">
+        <v>10</v>
+      </c>
+      <c r="K253" t="s">
+        <v>34</v>
+      </c>
+      <c r="L253" s="1">
+        <v>2702</v>
+      </c>
+      <c r="M253" s="2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="254" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I254" t="s">
+        <v>36</v>
+      </c>
+      <c r="J254" t="s">
+        <v>31</v>
+      </c>
+      <c r="K254" t="s">
+        <v>29</v>
+      </c>
+      <c r="L254" s="1">
+        <v>700</v>
+      </c>
+      <c r="M254" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="255" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I255" t="s">
+        <v>17</v>
+      </c>
+      <c r="J255" t="s">
+        <v>31</v>
+      </c>
+      <c r="K255" t="s">
+        <v>29</v>
+      </c>
+      <c r="L255" s="1">
+        <v>3759</v>
+      </c>
+      <c r="M255" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="256" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I256" t="s">
+        <v>27</v>
+      </c>
+      <c r="J256" t="s">
+        <v>10</v>
+      </c>
+      <c r="K256" t="s">
+        <v>29</v>
+      </c>
+      <c r="L256" s="1">
+        <v>1589</v>
+      </c>
+      <c r="M256" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="257" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I257" t="s">
+        <v>24</v>
+      </c>
+      <c r="J257" t="s">
+        <v>10</v>
+      </c>
+      <c r="K257" t="s">
+        <v>41</v>
+      </c>
+      <c r="L257" s="1">
+        <v>5194</v>
+      </c>
+      <c r="M257" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="258" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I258" t="s">
+        <v>36</v>
+      </c>
+      <c r="J258" t="s">
+        <v>15</v>
+      </c>
+      <c r="K258" t="s">
+        <v>32</v>
+      </c>
+      <c r="L258" s="1">
+        <v>945</v>
+      </c>
+      <c r="M258" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="259" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I259" t="s">
+        <v>6</v>
+      </c>
+      <c r="J259" t="s">
+        <v>21</v>
+      </c>
+      <c r="K259" t="s">
+        <v>22</v>
+      </c>
+      <c r="L259" s="1">
+        <v>1988</v>
+      </c>
+      <c r="M259" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="260" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I260" t="s">
+        <v>17</v>
+      </c>
+      <c r="J260" t="s">
+        <v>31</v>
+      </c>
+      <c r="K260" t="s">
+        <v>11</v>
+      </c>
+      <c r="L260" s="1">
+        <v>6734</v>
+      </c>
+      <c r="M260" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="261" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I261" t="s">
+        <v>6</v>
+      </c>
+      <c r="J261" t="s">
+        <v>15</v>
+      </c>
+      <c r="K261" t="s">
+        <v>13</v>
+      </c>
+      <c r="L261" s="1">
+        <v>217</v>
+      </c>
+      <c r="M261" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="262" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I262" t="s">
+        <v>26</v>
+      </c>
+      <c r="J262" t="s">
+        <v>31</v>
+      </c>
+      <c r="K262" t="s">
+        <v>23</v>
+      </c>
+      <c r="L262" s="1">
+        <v>6279</v>
+      </c>
+      <c r="M262" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="263" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I263" t="s">
+        <v>6</v>
+      </c>
+      <c r="J263" t="s">
+        <v>15</v>
+      </c>
+      <c r="K263" t="s">
+        <v>32</v>
+      </c>
+      <c r="L263" s="1">
+        <v>4424</v>
+      </c>
+      <c r="M263" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="264" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I264" t="s">
+        <v>27</v>
+      </c>
+      <c r="J264" t="s">
+        <v>15</v>
+      </c>
+      <c r="K264" t="s">
+        <v>29</v>
+      </c>
+      <c r="L264" s="1">
+        <v>189</v>
+      </c>
+      <c r="M264" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="265" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I265" t="s">
+        <v>26</v>
+      </c>
+      <c r="J265" t="s">
+        <v>10</v>
+      </c>
+      <c r="K265" t="s">
+        <v>23</v>
+      </c>
+      <c r="L265" s="1">
+        <v>490</v>
+      </c>
+      <c r="M265" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="266" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I266" t="s">
+        <v>9</v>
+      </c>
+      <c r="J266" t="s">
+        <v>7</v>
+      </c>
+      <c r="K266" t="s">
+        <v>42</v>
+      </c>
+      <c r="L266" s="1">
+        <v>434</v>
+      </c>
+      <c r="M266" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="267" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I267" t="s">
+        <v>24</v>
+      </c>
+      <c r="J267" t="s">
+        <v>21</v>
+      </c>
+      <c r="K267" t="s">
+        <v>8</v>
+      </c>
+      <c r="L267" s="1">
+        <v>10129</v>
+      </c>
+      <c r="M267" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="268" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I268" t="s">
+        <v>28</v>
+      </c>
+      <c r="J268" t="s">
+        <v>18</v>
+      </c>
+      <c r="K268" t="s">
+        <v>41</v>
+      </c>
+      <c r="L268" s="1">
+        <v>1652</v>
+      </c>
+      <c r="M268" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="269" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I269" t="s">
+        <v>9</v>
+      </c>
+      <c r="J269" t="s">
+        <v>21</v>
+      </c>
+      <c r="K269" t="s">
+        <v>42</v>
+      </c>
+      <c r="L269" s="1">
+        <v>6433</v>
+      </c>
+      <c r="M269" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="270" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I270" t="s">
+        <v>28</v>
+      </c>
+      <c r="J270" t="s">
+        <v>31</v>
+      </c>
+      <c r="K270" t="s">
+        <v>35</v>
+      </c>
+      <c r="L270" s="1">
+        <v>2212</v>
+      </c>
+      <c r="M270" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="271" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I271" t="s">
+        <v>14</v>
+      </c>
+      <c r="J271" t="s">
+        <v>10</v>
+      </c>
+      <c r="K271" t="s">
+        <v>37</v>
+      </c>
+      <c r="L271" s="1">
+        <v>609</v>
+      </c>
+      <c r="M271" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="272" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I272" t="s">
+        <v>6</v>
+      </c>
+      <c r="J272" t="s">
+        <v>10</v>
+      </c>
+      <c r="K272" t="s">
+        <v>39</v>
+      </c>
+      <c r="L272" s="1">
+        <v>1638</v>
+      </c>
+      <c r="M272" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="273" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I273" t="s">
+        <v>24</v>
+      </c>
+      <c r="J273" t="s">
+        <v>31</v>
+      </c>
+      <c r="K273" t="s">
+        <v>38</v>
+      </c>
+      <c r="L273" s="1">
+        <v>3829</v>
+      </c>
+      <c r="M273" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="274" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I274" t="s">
+        <v>6</v>
+      </c>
+      <c r="J274" t="s">
+        <v>18</v>
+      </c>
+      <c r="K274" t="s">
+        <v>38</v>
+      </c>
+      <c r="L274" s="1">
+        <v>5775</v>
+      </c>
+      <c r="M274" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="275" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I275" t="s">
+        <v>17</v>
+      </c>
+      <c r="J275" t="s">
+        <v>10</v>
+      </c>
+      <c r="K275" t="s">
+        <v>34</v>
+      </c>
+      <c r="L275" s="1">
+        <v>1071</v>
+      </c>
+      <c r="M275" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="276" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I276" t="s">
+        <v>9</v>
+      </c>
+      <c r="J276" t="s">
+        <v>15</v>
+      </c>
+      <c r="K276" t="s">
+        <v>35</v>
+      </c>
+      <c r="L276" s="1">
+        <v>5019</v>
+      </c>
+      <c r="M276" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="277" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I277" t="s">
+        <v>27</v>
+      </c>
+      <c r="J277" t="s">
+        <v>7</v>
+      </c>
+      <c r="K277" t="s">
+        <v>38</v>
+      </c>
+      <c r="L277" s="1">
+        <v>2863</v>
+      </c>
+      <c r="M277" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="278" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I278" t="s">
+        <v>6</v>
+      </c>
+      <c r="J278" t="s">
+        <v>10</v>
+      </c>
+      <c r="K278" t="s">
+        <v>33</v>
+      </c>
+      <c r="L278" s="1">
+        <v>1617</v>
+      </c>
+      <c r="M278" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="279" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I279" t="s">
+        <v>17</v>
+      </c>
+      <c r="J279" t="s">
+        <v>7</v>
+      </c>
+      <c r="K279" t="s">
+        <v>43</v>
+      </c>
+      <c r="L279" s="1">
+        <v>6818</v>
+      </c>
+      <c r="M279" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I280" t="s">
+        <v>28</v>
+      </c>
+      <c r="J280" t="s">
+        <v>10</v>
+      </c>
+      <c r="K280" t="s">
+        <v>38</v>
+      </c>
+      <c r="L280" s="1">
+        <v>6657</v>
+      </c>
+      <c r="M280" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="281" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I281" t="s">
+        <v>28</v>
+      </c>
+      <c r="J281" t="s">
+        <v>31</v>
+      </c>
+      <c r="K281" t="s">
+        <v>29</v>
+      </c>
+      <c r="L281" s="1">
+        <v>2919</v>
+      </c>
+      <c r="M281" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="282" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I282" t="s">
+        <v>27</v>
+      </c>
+      <c r="J282" t="s">
+        <v>15</v>
+      </c>
+      <c r="K282" t="s">
+        <v>22</v>
+      </c>
+      <c r="L282" s="1">
+        <v>3094</v>
+      </c>
+      <c r="M282" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="283" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I283" t="s">
+        <v>17</v>
+      </c>
+      <c r="J283" t="s">
+        <v>18</v>
+      </c>
+      <c r="K283" t="s">
+        <v>39</v>
+      </c>
+      <c r="L283" s="1">
+        <v>2989</v>
+      </c>
+      <c r="M283" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I284" t="s">
+        <v>9</v>
+      </c>
+      <c r="J284" t="s">
+        <v>21</v>
+      </c>
+      <c r="K284" t="s">
+        <v>40</v>
+      </c>
+      <c r="L284" s="1">
+        <v>2268</v>
+      </c>
+      <c r="M284" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="285" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I285" t="s">
+        <v>26</v>
+      </c>
+      <c r="J285" t="s">
+        <v>10</v>
+      </c>
+      <c r="K285" t="s">
+        <v>22</v>
+      </c>
+      <c r="L285" s="1">
+        <v>4753</v>
+      </c>
+      <c r="M285" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="286" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I286" t="s">
+        <v>27</v>
+      </c>
+      <c r="J286" t="s">
+        <v>31</v>
+      </c>
+      <c r="K286" t="s">
+        <v>37</v>
+      </c>
+      <c r="L286" s="1">
+        <v>7511</v>
+      </c>
+      <c r="M286" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="287" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I287" t="s">
+        <v>27</v>
+      </c>
+      <c r="J287" t="s">
+        <v>21</v>
+      </c>
+      <c r="K287" t="s">
+        <v>22</v>
+      </c>
+      <c r="L287" s="1">
+        <v>4326</v>
+      </c>
+      <c r="M287" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="288" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I288" t="s">
+        <v>14</v>
+      </c>
+      <c r="J288" t="s">
+        <v>31</v>
+      </c>
+      <c r="K288" t="s">
+        <v>35</v>
+      </c>
+      <c r="L288" s="1">
+        <v>4935</v>
+      </c>
+      <c r="M288" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="289" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I289" t="s">
+        <v>17</v>
+      </c>
+      <c r="J289" t="s">
+        <v>10</v>
+      </c>
+      <c r="K289" t="s">
+        <v>8</v>
+      </c>
+      <c r="L289" s="1">
+        <v>4781</v>
+      </c>
+      <c r="M289" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="290" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I290" t="s">
+        <v>26</v>
+      </c>
+      <c r="J290" t="s">
+        <v>21</v>
+      </c>
+      <c r="K290" t="s">
+        <v>19</v>
+      </c>
+      <c r="L290" s="1">
+        <v>7483</v>
+      </c>
+      <c r="M290" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="291" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I291" t="s">
+        <v>36</v>
+      </c>
+      <c r="J291" t="s">
+        <v>21</v>
+      </c>
+      <c r="K291" t="s">
+        <v>13</v>
+      </c>
+      <c r="L291" s="1">
+        <v>6860</v>
+      </c>
+      <c r="M291" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="292" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I292" t="s">
+        <v>6</v>
+      </c>
+      <c r="J292" t="s">
+        <v>7</v>
+      </c>
+      <c r="K292" t="s">
+        <v>33</v>
+      </c>
+      <c r="L292" s="1">
+        <v>9002</v>
+      </c>
+      <c r="M292" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="293" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I293" t="s">
+        <v>17</v>
+      </c>
+      <c r="J293" t="s">
+        <v>15</v>
+      </c>
+      <c r="K293" t="s">
+        <v>33</v>
+      </c>
+      <c r="L293" s="1">
+        <v>1400</v>
+      </c>
+      <c r="M293" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="294" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I294" t="s">
+        <v>36</v>
+      </c>
+      <c r="J294" t="s">
+        <v>31</v>
+      </c>
+      <c r="K294" t="s">
+        <v>23</v>
+      </c>
+      <c r="L294" s="1">
+        <v>4053</v>
+      </c>
+      <c r="M294" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="295" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I295" t="s">
+        <v>24</v>
+      </c>
+      <c r="J295" t="s">
+        <v>15</v>
+      </c>
+      <c r="K295" t="s">
+        <v>22</v>
+      </c>
+      <c r="L295" s="1">
+        <v>2149</v>
+      </c>
+      <c r="M295" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="296" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I296" t="s">
+        <v>28</v>
+      </c>
+      <c r="J296" t="s">
+        <v>18</v>
+      </c>
+      <c r="K296" t="s">
+        <v>33</v>
+      </c>
+      <c r="L296" s="1">
+        <v>3640</v>
+      </c>
+      <c r="M296" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="297" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I297" t="s">
+        <v>27</v>
+      </c>
+      <c r="J297" t="s">
+        <v>18</v>
+      </c>
+      <c r="K297" t="s">
+        <v>35</v>
+      </c>
+      <c r="L297" s="1">
+        <v>630</v>
+      </c>
+      <c r="M297" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="298" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I298" t="s">
+        <v>12</v>
+      </c>
+      <c r="J298" t="s">
+        <v>10</v>
+      </c>
+      <c r="K298" t="s">
+        <v>40</v>
+      </c>
+      <c r="L298" s="1">
+        <v>2429</v>
+      </c>
+      <c r="M298" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="299" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I299" t="s">
+        <v>12</v>
+      </c>
+      <c r="J299" t="s">
+        <v>15</v>
+      </c>
+      <c r="K299" t="s">
+        <v>19</v>
+      </c>
+      <c r="L299" s="1">
+        <v>2142</v>
+      </c>
+      <c r="M299" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="300" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I300" t="s">
+        <v>24</v>
+      </c>
+      <c r="J300" t="s">
+        <v>7</v>
+      </c>
+      <c r="K300" t="s">
+        <v>8</v>
+      </c>
+      <c r="L300" s="1">
+        <v>6454</v>
+      </c>
+      <c r="M300" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="301" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I301" t="s">
+        <v>24</v>
+      </c>
+      <c r="J301" t="s">
+        <v>7</v>
+      </c>
+      <c r="K301" t="s">
+        <v>30</v>
+      </c>
+      <c r="L301" s="1">
+        <v>4487</v>
+      </c>
+      <c r="M301" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="302" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I302" t="s">
+        <v>28</v>
+      </c>
+      <c r="J302" t="s">
+        <v>7</v>
+      </c>
+      <c r="K302" t="s">
+        <v>13</v>
+      </c>
+      <c r="L302" s="1">
+        <v>938</v>
+      </c>
+      <c r="M302" s="2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="303" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I303" t="s">
+        <v>28</v>
+      </c>
+      <c r="J303" t="s">
+        <v>21</v>
+      </c>
+      <c r="K303" t="s">
+        <v>43</v>
+      </c>
+      <c r="L303" s="1">
+        <v>8841</v>
+      </c>
+      <c r="M303" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I304" t="s">
+        <v>27</v>
+      </c>
+      <c r="J304" t="s">
+        <v>18</v>
+      </c>
+      <c r="K304" t="s">
+        <v>20</v>
+      </c>
+      <c r="L304" s="1">
+        <v>4018</v>
+      </c>
+      <c r="M304" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="305" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I305" t="s">
+        <v>14</v>
+      </c>
+      <c r="J305" t="s">
+        <v>7</v>
+      </c>
+      <c r="K305" t="s">
+        <v>38</v>
+      </c>
+      <c r="L305" s="1">
+        <v>714</v>
+      </c>
+      <c r="M305" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="306" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I306" t="s">
+        <v>12</v>
+      </c>
+      <c r="J306" t="s">
+        <v>21</v>
+      </c>
+      <c r="K306" t="s">
+        <v>19</v>
+      </c>
+      <c r="L306" s="1">
+        <v>3850</v>
+      </c>
+      <c r="M306" s="2">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Data Analysis.xlsx
+++ b/Data Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49043E2-6B5D-4822-859F-A8894ADB3778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359C4457-9667-4C3F-A329-7DE2311E1B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="6" activeTab="6" xr2:uid="{CD8DB978-185C-435B-B321-DAE8AA9CD3B9}"/>
   </bookViews>
@@ -489,7 +489,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -539,57 +539,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -6272,7 +6221,7 @@
     <dataField name="Sum of Units" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="15">
+    <format dxfId="5">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6281,7 +6230,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="6">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6450,24 +6399,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{875C5605-3F4E-4992-891A-D193F208C6CD}" name="Data1" displayName="Data1" ref="A4:E304" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{875C5605-3F4E-4992-891A-D193F208C6CD}" name="Data1" displayName="Data1" ref="A4:E304" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A4:E304" xr:uid="{875C5605-3F4E-4992-891A-D193F208C6CD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{680E1972-D540-42C4-98D3-C9DDEE13105D}" name="Sales Person"/>
     <tableColumn id="2" xr3:uid="{1C9E4BC3-CD14-4A40-A1A8-0B13003E0521}" name="Geography"/>
     <tableColumn id="3" xr3:uid="{825B5F70-301E-4BAA-9819-B8EF35EE9DD6}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{AFB1CCAE-42EF-463D-BA27-4D9D4D8B2E8F}" name="Amount" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{9FC8C55E-CCE0-4C77-AB70-9F5D64EB8389}" name="Units" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{AFB1CCAE-42EF-463D-BA27-4D9D4D8B2E8F}" name="Amount" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{9FC8C55E-CCE0-4C77-AB70-9F5D64EB8389}" name="Units" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C237C5DC-4DC0-4EB4-A225-020717577FEC}" name="Data16" displayName="Data16" ref="B4:F304" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C237C5DC-4DC0-4EB4-A225-020717577FEC}" name="Data16" displayName="Data16" ref="B4:F304" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="B4:F304" xr:uid="{C237C5DC-4DC0-4EB4-A225-020717577FEC}">
     <filterColumn colId="3">
-      <colorFilter dxfId="26" cellColor="0"/>
+      <colorFilter dxfId="9" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:F304">
@@ -6477,8 +6426,8 @@
     <tableColumn id="1" xr3:uid="{BB07AF2A-3049-431F-B5E5-6E931089AF1B}" name="Sales Person"/>
     <tableColumn id="2" xr3:uid="{968D83D5-F377-4C93-923D-56A7EE38EB07}" name="Geography"/>
     <tableColumn id="3" xr3:uid="{C42DDE64-02D1-4585-A225-0583B18524B7}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{2941AC9F-E6CD-4ED8-A966-028FFF8D25D4}" name="Amount" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{6B1D6AD6-A64E-4E40-9E83-3B7C7A39BB95}" name="Units" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{2941AC9F-E6CD-4ED8-A966-028FFF8D25D4}" name="Amount" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{6B1D6AD6-A64E-4E40-9E83-3B7C7A39BB95}" name="Units" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/Data Analysis.xlsx
+++ b/Data Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359C4457-9667-4C3F-A329-7DE2311E1B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66FC996-4F9C-43E2-83A3-242B7A2E995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="6" activeTab="6" xr2:uid="{CD8DB978-185C-435B-B321-DAE8AA9CD3B9}"/>
   </bookViews>
@@ -24,13 +24,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sales by Country (with fomulas)'!$B$3:$E$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$E$304</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Anomaly detection'!$J$7:$J$306</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Anomaly detection'!$L$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Anomaly detection'!$L$7:$L$306</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Anomaly detection'!$L$7:$L$306</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Anomaly detection'!$J$7:$J$306</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Anomaly detection'!$L$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Anomaly detection'!$L$7:$L$306</definedName>
     <definedName name="_xlcn.WorksheetConnection_DataAnalysis.xlsxdata11" hidden="1">Data1[]</definedName>
     <definedName name="Slicer_Sales_Person">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId8"/>
-    <pivotCache cacheId="48" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -90,7 +97,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -316,9 +323,9 @@
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="170" formatCode="\$#,##0.00;\(\$#,##0.00\);\$#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="\$#,##0.00;\(\$#,##0.00\);\$#,##0.00"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -453,36 +460,38 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -535,10 +544,10 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -609,2091 +618,83 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Anomaly detection'!$L$7:$L$306</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
-                <c:ptCount val="300"/>
-                <c:pt idx="0">
-                  <c:v>1624</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6706</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9632</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8869</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2681</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1281</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4991</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1785</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3983</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2646</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2464</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2114</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7693</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15610</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9443</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8155</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1701</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2205</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1771</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2114</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10311</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1974</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6314</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4683</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6398</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7021</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5817</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3976</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1134</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6027</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1904</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3262</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2289</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6986</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4417</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1442</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2415</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4949</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5075</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9198</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3339</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5019</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>16184</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>497</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8211</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6580</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4760</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5439</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1463</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7777</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1085</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4242</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6118</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2317</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>938</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>9709</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2205</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4487</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2415</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4018</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>861</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5586</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2226</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>14329</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>8463</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2891</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3773</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>854</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>4970</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>13391</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8890</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3339</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3808</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>7812</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>7693</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>973</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>567</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2471</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>7189</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>7455</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3108</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>469</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2737</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4305</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2408</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1281</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>12348</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>3689</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2870</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>798</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2933</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2744</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>9772</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1568</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>11417</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>6748</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1407</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>5236</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1925</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>6608</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>8008</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1428</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1505</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>6755</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>11571</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2541</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1526</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>6125</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>847</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>4753</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2793</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>4606</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>5551</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>6657</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>4438</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>7777</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>3339</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>6391</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>518</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>5677</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>6048</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>3752</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>4480</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2478</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>7847</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>9926</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>819</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>3052</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>6832</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>7322</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>3192</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>8435</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>8862</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>3556</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>7280</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>3402</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>4592</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>7833</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>7651</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>2275</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>5670</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2135</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>2779</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>12950</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>2646</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>3794</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>819</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>2583</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>4585</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>1652</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>4991</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>1568</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>3388</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>623</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>10073</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>1561</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>11522</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>2317</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>3059</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>2324</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>4956</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>5355</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>7259</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>6279</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>2541</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>3864</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>6146</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>2639</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>1890</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>1932</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>2856</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>707</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>3598</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>6853</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>4725</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>10304</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>1274</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>1526</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>3101</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>5306</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>4018</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>938</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>1778</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>1638</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>9835</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>7273</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>6909</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>3920</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>4858</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>3549</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>2219</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>2954</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>6118</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>4802</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>4137</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>9051</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>2919</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>5915</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>2562</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>8813</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>6111</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>3507</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>4319</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>6370</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>5474</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>3164</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>1302</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>7308</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>6132</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>3472</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>9660</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>2436</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>9506</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>2702</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>3759</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>1589</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>5194</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>945</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>6734</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>6279</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>4424</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>10129</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>1652</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>6433</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>2212</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>1638</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>3829</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>5775</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>1071</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>5019</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>2863</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>1617</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>6818</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>6657</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>2919</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>3094</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>2989</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>2268</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>4753</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>7511</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>4326</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>4935</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>4781</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>7483</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>6860</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>9002</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>4053</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>2149</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>3640</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>2429</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>2142</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>6454</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>4487</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>938</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>8841</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>4018</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>714</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>3850</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Anomaly detection'!$M$7:$M$306</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="300"/>
-                <c:pt idx="0">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>459</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>414</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>432</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>492</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>519</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>459</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>447</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>102</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FBE5-4B5F-A5B4-CD7063C962F9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="678210767"/>
-        <c:axId val="678229007"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="678210767"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="678229007"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="678229007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="678210767"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{6B276046-B915-436D-96C0-7FAE1BD7975F}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{FCBC5C68-1AE8-45CF-8F33-C711C5427DE6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>Amount</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2736,8 +737,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2748,7 +789,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2764,14 +805,14 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -2794,7 +835,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2802,11 +843,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -2831,42 +872,59 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2875,10 +933,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -2886,9 +942,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -2901,10 +960,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2923,41 +982,38 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3006,12 +1062,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3043,8 +1093,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3062,8 +1112,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3099,7 +1149,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -3127,9 +1177,362 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3147,6 +1550,176 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:seriesLine>
   <cs:title>
     <cs:lnRef idx="0"/>
@@ -3158,7 +1731,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3174,7 +1747,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3188,27 +1761,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3222,18 +1794,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -3242,12 +1803,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3267,8 +1822,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Sales Person">
@@ -3291,7 +1846,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3340,37 +1895,157 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828968CD-02BD-9650-36FA-887FBE6D58A3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="243840" y="1120140"/>
+              <a:ext cx="1645920" cy="3310890"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B3952D-8AA3-6C0B-4A6D-92730BBB1887}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375ECB91-4727-DE1A-2DA8-C743FEF05432}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="4613910"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5873,7 +4548,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC3C4488-C1FD-4A74-9B0E-728A22574439}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC3C4488-C1FD-4A74-9B0E-728A22574439}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B4:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -6221,7 +4896,7 @@
     <dataField name="Sum of Units" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="5">
+    <format dxfId="6">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6230,7 +4905,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="5">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6274,7 +4949,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78DDA372-7C02-427D-B156-45110A280BEA}" name="PivotTable4" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78DDA372-7C02-427D-B156-45110A280BEA}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -11919,20 +10594,20 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" ht="32.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
@@ -17234,24 +15909,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H3" t="s">
@@ -17265,19 +15940,19 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="str" cm="1">
+      <c r="B4" s="8" t="str" cm="1">
         <f t="array" ref="B4:B9">_xlfn.UNIQUE(Data1[Geography])</f>
         <v>New Zealand</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <f>SUMIFS(Data1[Amount],Data1[Geography],B4)</f>
         <v>218813</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <f>C4</f>
         <v>218813</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <f>SUMIFS(Data1[Units],Data1[Geography],B4)</f>
         <v>7431</v>
       </c>
@@ -17285,7 +15960,7 @@
         <f t="array" ref="H4:H9">_xlfn.UNIQUE(Data1[Geography])</f>
         <v>New Zealand</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f>SUMIFS(Data1[Amount],Data1[Geography],H4)</f>
         <v>218813</v>
       </c>
@@ -17295,25 +15970,25 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="8" t="str">
         <v>USA</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <f>SUMIFS(Data1[Amount],Data1[Geography],B5)</f>
         <v>189434</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <f t="shared" ref="D5:D9" si="0">C5</f>
         <v>189434</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <f>SUMIFS(Data1[Units],Data1[Geography],B5)</f>
         <v>10158</v>
       </c>
       <c r="H5" t="str">
         <v>USA</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f>SUMIFS(Data1[Amount],Data1[Geography],H5)</f>
         <v>189434</v>
       </c>
@@ -17323,25 +15998,25 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="str">
+      <c r="B6" s="8" t="str">
         <v>Canada</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <f>SUMIFS(Data1[Amount],Data1[Geography],B6)</f>
         <v>237944</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>237944</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <f>SUMIFS(Data1[Units],Data1[Geography],B6)</f>
         <v>7302</v>
       </c>
       <c r="H6" t="str">
         <v>Canada</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <f>SUMIFS(Data1[Amount],Data1[Geography],H6)</f>
         <v>237944</v>
       </c>
@@ -17351,25 +16026,25 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="8" t="str">
         <v>UK</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <f>SUMIFS(Data1[Amount],Data1[Geography],B7)</f>
         <v>173530</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>173530</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <f>SUMIFS(Data1[Units],Data1[Geography],B7)</f>
         <v>5745</v>
       </c>
       <c r="H7" t="str">
         <v>UK</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f>SUMIFS(Data1[Amount],Data1[Geography],H7)</f>
         <v>173530</v>
       </c>
@@ -17379,25 +16054,25 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="str">
+      <c r="B8" s="8" t="str">
         <v>Australia</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <f>SUMIFS(Data1[Amount],Data1[Geography],B8)</f>
         <v>168679</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>168679</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <f>SUMIFS(Data1[Units],Data1[Geography],B8)</f>
         <v>6264</v>
       </c>
       <c r="H8" t="str">
         <v>Australia</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f>SUMIFS(Data1[Amount],Data1[Geography],H8)</f>
         <v>168679</v>
       </c>
@@ -17407,25 +16082,25 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="str">
+      <c r="B9" s="11" t="str">
         <v>India</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <f>SUMIFS(Data1[Amount],Data1[Geography],B9)</f>
         <v>252469</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>252469</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <f>SUMIFS(Data1[Units],Data1[Geography],B9)</f>
         <v>8760</v>
       </c>
       <c r="H9" t="str">
         <v>India</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f>SUMIFS(Data1[Amount],Data1[Geography],H9)</f>
         <v>252469</v>
       </c>
@@ -17957,50 +16632,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="16" t="s">
         <v>59</v>
       </c>
       <c r="D4" t="s">
@@ -18011,13 +16686,13 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="16">
         <v>168679</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5">
         <v>168679</v>
       </c>
       <c r="E5" s="2">
@@ -18025,13 +16700,13 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="16">
         <v>237944</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6">
         <v>237944</v>
       </c>
       <c r="E6" s="2">
@@ -18039,13 +16714,13 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="16">
         <v>252469</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7">
         <v>252469</v>
       </c>
       <c r="E7" s="2">
@@ -18053,13 +16728,13 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="16">
         <v>218813</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8">
         <v>218813</v>
       </c>
       <c r="E8" s="2">
@@ -18067,13 +16742,13 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="16">
         <v>173530</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9">
         <v>173530</v>
       </c>
       <c r="E9" s="2">
@@ -18081,13 +16756,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="16">
         <v>189434</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10">
         <v>189434</v>
       </c>
       <c r="E10" s="2">
@@ -18195,7 +16870,7 @@
       <c r="J3" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B6" t="s">
@@ -18203,50 +16878,50 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="17">
         <v>44.990867579908674</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="17">
         <v>37.303128371089535</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="17">
         <v>33.88697318007663</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="17">
         <v>32.807189542483663</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="17">
         <v>32.301656920077974</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="17">
         <v>35.949565217391303</v>
       </c>
     </row>
@@ -18262,37 +16937,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD16C6D8-D7ED-4E9B-9362-C9E4CF0AAE13}">
   <dimension ref="A1:M306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L6" activeCellId="2" sqref="J7:J306 L7:L306 L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I6" s="3" t="s">
